--- a/artfynd/A 7819-2019.xlsx
+++ b/artfynd/A 7819-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1360,6 +1360,122 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112196385</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Jeppmakullarna, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>606897.2701169839</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7189526.380129344</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Storuman</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Stensele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Lena Lundevaller</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Lena Lundevaller, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 7819-2019.xlsx
+++ b/artfynd/A 7819-2019.xlsx
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>606897.2701169839</v>
+        <v>606897</v>
       </c>
       <c r="R8" t="n">
-        <v>7189526.380129344</v>
+        <v>7189526</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1438,19 +1438,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 7819-2019.xlsx
+++ b/artfynd/A 7819-2019.xlsx
@@ -1365,7 +1365,7 @@
         <v>112196385</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>

--- a/artfynd/A 7819-2019.xlsx
+++ b/artfynd/A 7819-2019.xlsx
@@ -1365,7 +1365,7 @@
         <v>112196385</v>
       </c>
       <c r="B8" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
